--- a/data/register_template.xlsx
+++ b/data/register_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\Projects\PyCharm\SchoolProjects\ClassRegister\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECBFAB-0111-427E-8BE0-4D87E581F1D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29025F0-7876-4FF8-820A-0BA853227BDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0D4C15D1-A76A-48FA-AFC1-B055928A5035}"/>
   </bookViews>
@@ -605,6 +605,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,69 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,8 +1023,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,41 +1036,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1100,8 +1100,8 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1460,8 +1460,8 @@
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1475,8 +1475,8 @@
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1490,8 +1490,8 @@
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1505,8 +1505,8 @@
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1520,8 +1520,8 @@
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1535,8 +1535,8 @@
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1550,8 +1550,8 @@
       <c r="A34" s="10">
         <v>31</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1569,282 +1569,265 @@
       <c r="B36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="43"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="44"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="44"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="44"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="44"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="44"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="44"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="44"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="44"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="44"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="44"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="44"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="44"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="44"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="44"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="49"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:F50"/>
-    <mergeCell ref="G49:K50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:F52"/>
-    <mergeCell ref="G51:K52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="G45:K46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:F48"/>
-    <mergeCell ref="G47:K48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:K42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="G43:K44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="G37:K38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="G36:K36"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:C27"/>
@@ -1861,24 +1844,41 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G37:K38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="G41:K42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="G43:K44"/>
+    <mergeCell ref="G45:K46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:F48"/>
+    <mergeCell ref="G47:K48"/>
+    <mergeCell ref="G49:K50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:F52"/>
+    <mergeCell ref="G51:K52"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
